--- a/forwardprimer-v3_04.xlsx
+++ b/forwardprimer-v3_04.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_04" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F0289-CCTACTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTACTGCTATCGTCGGCAGCGTC</t>
+    <t>F0289-GTAGGTGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTAGGTGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F0290-TACGTTCTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTTCTCCTCGTCGGCAGCGTC</t>
+    <t>F0290-AAGCACAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F0291-CCTACTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTACTCAAGTCGTCGGCAGCGTC</t>
+    <t>F0291-AAGGTGAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTGAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F0292-AAGTCGTACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGTCGTACCTCGTCGGCAGCGTC</t>
+    <t>F0292-CACCTTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACCTTCGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F0293-AGAGACTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGACTTCCTCGTCGGCAGCGTC</t>
+    <t>F0293-ACCTCACTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCTCACTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F0294-CAGATCCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGATCCTTGTCGTCGGCAGCGTC</t>
+    <t>F0294-GACATCTGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACATCTGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F0295-ACACAGAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAGAGACTCGTCGGCAGCGTC</t>
+    <t>F0295-TTGAGTCTCC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGTCTCCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F0296-TTGGTGATCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTGATCGTCGTCGGCAGCGTC</t>
+    <t>F0296-CTCTACACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTACACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F0297-GATGGACTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGGACTGTTCGTCGGCAGCGTC</t>
+    <t>F0297-TACGAGTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGAGTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>F0298-TCACTCTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACTCTTCCTCGTCGGCAGCGTC</t>
+    <t>F0298-TAGTGCTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTGCTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F0299-ACCAAGAAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCAAGAAGTTCGTCGGCAGCGTC</t>
+    <t>F0299-GTACTAGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTAGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F0300-ACACAGTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAGTGTATCGTCGGCAGCGTC</t>
+    <t>F0300-CCTGAGTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTGAGTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F0301-CCTAGTACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGTACTGTCGTCGGCAGCGTC</t>
+    <t>F0301-TGCAACTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCAACTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F0302-CTCATGTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCATGTTCCTCGTCGGCAGCGTC</t>
+    <t>F0302-GGATGAACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGATGAACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F0303-GTCTCTCGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCTCGAATCGTCGGCAGCGTC</t>
+    <t>F0303-TGGTCACACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTCACACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F0304-TCAGACAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGACAGACTCGTCGGCAGCGTC</t>
+    <t>F0304-ACAACTAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACTAGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F0305-AGGAAGTCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAAGTCATTCGTCGGCAGCGTC</t>
+    <t>F0305-ATCGACACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGACACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F0306-ACTCTAGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCTAGCTCTCGTCGGCAGCGTC</t>
+    <t>F0306-TTGACTGACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGACTGACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F0307-GAGGATGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGGATGAAGTCGTCGGCAGCGTC</t>
+    <t>F0307-TGGACCAAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGACCAAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F0308-AGGACAGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGACAGTCTTCGTCGGCAGCGTC</t>
+    <t>F0308-TTCATGCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCATGCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F0309-GCATGATGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCATGATGAGTCGTCGGCAGCGTC</t>
+    <t>F0309-AACTCTAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F0310-TCGTGTAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTGTAGTCTCGTCGGCAGCGTC</t>
+    <t>F0310-CAAGACCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGACCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F0311-TGACATCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACATCTACTCGTCGGCAGCGTC</t>
+    <t>F0311-TTCTGGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGGAGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F0312-AAGCATGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCATGAGCTCGTCGGCAGCGTC</t>
+    <t>F0312-AAGGTACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F0313-TCAACAGCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAACAGCTCTCGTCGGCAGCGTC</t>
+    <t>F0313-AGTCAGTCTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGTCTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F0314-AACAGACGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAGACGTTTCGTCGGCAGCGTC</t>
+    <t>F0314-GTGCAGTACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGCAGTACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F0315-CATCGAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCGAGAAGTCGTCGGCAGCGTC</t>
+    <t>F0315-AACACTACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACTACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F0316-TTCACTCATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCACTCATGTCGTCGGCAGCGTC</t>
+    <t>F0316-AGTACAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTACAGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F0317-AACTCGATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTCGATGATCGTCGGCAGCGTC</t>
+    <t>F0317-CTGTACCTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTACCTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F0318-ACACTCTGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACTCTGTCTCGTCGGCAGCGTC</t>
+    <t>F0318-AGATGACACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGACACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F0319-TACTCTGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACTCTGTGGTCGTCGGCAGCGTC</t>
+    <t>F0319-AGTCCTGACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTGACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F0320-AAGCTGTTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTGTTGCTCGTCGGCAGCGTC</t>
+    <t>F0320-TCATGGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATGGACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>F0321-TCGTCACCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCGTCACCTATCGTCGGCAGCGTC</t>
+    <t>F0321-GGAAGTCTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGAAGTCTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>F0322-TGTCGTGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCGTGCTATCGTCGGCAGCGTC</t>
+    <t>F0322-CTGAGTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGTTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>F0323-GACAAGATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAAGATCTTCGTCGGCAGCGTC</t>
+    <t>F0323-AGCTGTAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTAGCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>F0324-GCAGATGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAGATGGTTTCGTCGGCAGCGTC</t>
+    <t>F0324-ACAACGTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAACGTCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>F0325-TGCTGAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGAGTCATCGTCGGCAGCGTC</t>
+    <t>F0325-AGTTGATCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGATCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>F0326-TCTCACAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCACAACATCGTCGGCAGCGTC</t>
+    <t>F0326-GAAGTAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGTAGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>F0327-AGCATGCTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCATGCTAGTCGTCGGCAGCGTC</t>
+    <t>F0327-TTGAGGTCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGAGGTCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>F0328-CCTACAAGCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTACAAGCATCGTCGGCAGCGTC</t>
+    <t>F0328-ACTGTGGACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTGGACTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>F0329-TACAGATCTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGATCTCTCGTCGGCAGCGTC</t>
+    <t>F0329-AGAGAACCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGAACCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>F0330-ACTTCTGTGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTCTGTGGTCGTCGGCAGCGTC</t>
+    <t>F0330-ACACATGATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACACATGATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>F0331-TGACACAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACACAACTTCGTCGGCAGCGTC</t>
+    <t>F0331-GTCATCAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCATCAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>F0332-AACCATGTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACCATGTCTTCGTCGGCAGCGTC</t>
+    <t>F0332-AACTACCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTACCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>F0333-CTTCTGGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTCTGGAAGTCGTCGGCAGCGTC</t>
+    <t>F0333-TGAAGTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGTTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>F0334-GACGAAGTCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACGAAGTCATCGTCGGCAGCGTC</t>
+    <t>F0334-AGAGCTGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>F0335-GAGATGAGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGATGAGGTTCGTCGGCAGCGTC</t>
+    <t>F0335-CAACACACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACACACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>F0336-CTGAGTTCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGAGTTCCATCGTCGGCAGCGTC</t>
+    <t>F0336-CTTGGACGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTTGGACGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>F0337-GCAAGTCCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCAAGTCCTTTCGTCGGCAGCGTC</t>
+    <t>F0337-AACAACTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACAACTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>F0338-TCAGCATGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCATGAATCGTCGGCAGCGTC</t>
+    <t>F0338-TCAGAGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGAGTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F0339-TCTACAGGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTACAGGACTCGTCGGCAGCGTC</t>
+    <t>F0339-ATCGATCCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGATCCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F0340-ACAGTGGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGTGGTGATCGTCGGCAGCGTC</t>
+    <t>F0340-AGGTCTGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F0341-CTAGCTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCTGGTTTCGTCGGCAGCGTC</t>
+    <t>F0341-CAACAGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAACAGTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>F0342-ACGTTCAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTTCAACATCGTCGGCAGCGTC</t>
+    <t>F0342-TACCAGTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>F0343-ACAACACAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACACAACTCGTCGGCAGCGTC</t>
+    <t>F0343-CTCACAAGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCACAAGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>F0344-CATGTCTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATGTCTGGTTCGTCGGCAGCGTC</t>
+    <t>F0344-AGTTCGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTTCGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>F0345-TACAAGGTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAAGGTGATCGTCGGCAGCGTC</t>
+    <t>F0345-AAGACCACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACCACATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>F0346-GAGAGACTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGACTGATCGTCGGCAGCGTC</t>
+    <t>F0346-GAAGCTCTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCTCTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>F0347-GGAACTCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAACTCTACTCGTCGGCAGCGTC</t>
+    <t>F0347-GCATCTTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCATCTTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>F0348-ATGACGTTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGACGTTCCTCGTCGGCAGCGTC</t>
+    <t>F0348-TCGACTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCGACTCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>F0349-AACAACAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACAACCTCGTCGGCAGCGTC</t>
+    <t>F0349-TGAGCTCACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCTCACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>F0350-GACAGCATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACAGCATGTTCGTCGGCAGCGTC</t>
+    <t>F0350-AAGAGACCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGACCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>F0351-TTGCTAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGCTAGATCTCGTCGGCAGCGTC</t>
+    <t>F0351-CAGTACGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAGTACGAACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>F0352-AGGAACGTAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGAACGTAGTCGTCGGCAGCGTC</t>
+    <t>F0352-AGTAGTTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTAGTTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>F0353-AGCAGACTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGCAGACTACTCGTCGGCAGCGTC</t>
+    <t>F0353-ATCAGAGGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCAGAGGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>F0354-ACAACATCGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAACATCGATCGTCGGCAGCGTC</t>
+    <t>F0354-GATGGTGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGGTGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>F0355-TCAAGCTACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCAAGCTACGTCGTCGGCAGCGTC</t>
+    <t>F0355-AACGAAGGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGAAGGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>F0356-AAGGATGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGATGCAATCGTCGGCAGCGTC</t>
+    <t>F0356-AGATGAACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGATGAACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>F0357-ACGATCTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGATCTGGATCGTCGGCAGCGTC</t>
+    <t>F0357-TCACACCTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACACCTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>F0358-TCTCAAGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCAAGATCTCGTCGGCAGCGTC</t>
+    <t>F0358-AACCTAGATC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACCTAGATCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>F0359-CTCAAGCTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCAAGCTTGTCGTCGGCAGCGTC</t>
+    <t>F0359-AGGAGTCGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGAGTCGTTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>F0360-TAGAGATGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGAGATGGTTCGTCGGCAGCGTC</t>
+    <t>F0360-TACGTGGTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGGTTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>F0361-ACCTACTCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTACTCACTCGTCGGCAGCGTC</t>
+    <t>F0361-AAGCACTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCACTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>F0362-ATCCTCATCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCCTCATCCTCGTCGGCAGCGTC</t>
+    <t>F0362-GAACCTACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>F0363-GTGTCTGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCTGGTTTCGTCGGCAGCGTC</t>
+    <t>F0363-AAGCTAGTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGCTAGTGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>F0364-TCTGTAGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTAGGAATCGTCGGCAGCGTC</t>
+    <t>F0364-GATGAGATGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGATGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>F0365-GTTGAGGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGAGGAACTCGTCGGCAGCGTC</t>
+    <t>F0365-ACCATCAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACCATCAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F0366-GTCCAACCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCCAACCAATCGTCGGCAGCGTC</t>
+    <t>F0366-GGTACTTGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACTTGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F0367-AACTGGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTGGTCGTTCGTCGGCAGCGTC</t>
+    <t>F0367-TAGCTGGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTGGTTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F0368-TCACGTACAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCACGTACAATCGTCGGCAGCGTC</t>
+    <t>F0368-AACTCTCACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTCTCACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F0369-CTCGAACGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCGAACGATTCGTCGGCAGCGTC</t>
+    <t>F0369-TTGTCCTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCCTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F0370-GCTCGAACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCGAACATTCGTCGGCAGCGTC</t>
+    <t>F0370-TAGGAGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAGAAGCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F0371-TACGTTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACGTTGCAATCGTCGGCAGCGTC</t>
+    <t>F0371-GAGTGTACAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGTGTACACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F0372-ACAAGGACAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGGACATTCGTCGGCAGCGTC</t>
+    <t>F0372-TGTGAGGTAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAGGTAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F0373-TTGGTACGTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTACGTGTCGTCGGCAGCGTC</t>
+    <t>F0373-CCTAGAACGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTAGAACGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F0374-CTTGAGGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTTGAGGTGTTCGTCGGCAGCGTC</t>
+    <t>F0374-CTGTGCTTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTGCTTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F0375-AGTCGTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCGTGCATTCGTCGGCAGCGTC</t>
+    <t>F0375-TCATCGTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCATCGTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F0376-TGCTGTTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGCTGTTCCTTCGTCGGCAGCGTC</t>
+    <t>F0376-AAGAGAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGAGAGTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F0377-CAACTGAAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACTGAAGGTCGTCGGCAGCGTC</t>
+    <t>F0377-ACTGTTGCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGTTGCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F0378-CAGGAGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGGAGAGAATCGTCGGCAGCGTC</t>
+    <t>F0378-TGATGTGCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATGTGCACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F0379-ATCAGAGTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCAGAGTCCTCGTCGGCAGCGTC</t>
+    <t>F0379-GAAGACTGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACTGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F0380-CACATCTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACATCTAGATCGTCGGCAGCGTC</t>
+    <t>F0380-TTCTGACTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGACTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F0381-CTACACAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACACAACATCGTCGGCAGCGTC</t>
+    <t>F0381-ACTCAGTCGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTCAGTCGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F0382-AGAGGAGCTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGGAGCTTTCGTCGGCAGCGTC</t>
+    <t>F0382-AACTGTGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACTGTGGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F0383-GTCTTCATGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCTTCATGGTCGTCGGCAGCGTC</t>
+    <t>F0383-ATGTGGAAGG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATGTGGAAGGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F0384-TACCTACAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTACAGCTCGTCGGCAGCGTC</t>
+    <t>F0384-TCTGGAAGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTGGAAGAGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
